--- a/docs/Requerimiento.xlsx
+++ b/docs/Requerimiento.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\viva\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\Apache24\htdocs\viva\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EE7AD3-2D42-4BC2-A9C2-3748F514FA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7F870-3CDD-4E36-B487-202E2083BA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login " sheetId="7" r:id="rId1"/>
-    <sheet name="INDEX_LANDING" sheetId="3" r:id="rId2"/>
+    <sheet name="INDEX_LANDING" sheetId="3" r:id="rId1"/>
+    <sheet name="Login " sheetId="7" r:id="rId2"/>
     <sheet name="REGISTRO_VENDEDOR" sheetId="2" r:id="rId3"/>
     <sheet name="MIS_PRODUCTOS" sheetId="4" r:id="rId4"/>
     <sheet name="PERFIL" sheetId="5" r:id="rId5"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="305">
   <si>
     <t>SI</t>
   </si>
@@ -202,9 +202,6 @@
     <t>El sistema debe incluir un botón de búsqueda junto al campo de búsqueda.</t>
   </si>
   <si>
-    <t>El sistema debe incluir un menú de navegación con enlaces a 'Inicio', 'Categorías' y 'Ofertas' visible en pantallas grandes.</t>
-  </si>
-  <si>
     <t>El sistema debe mostrar un menú de usuario con foto de perfil para usuarios autenticados.</t>
   </si>
   <si>
@@ -244,27 +241,12 @@
     <t>El sistema debe mostrar productos destacados en un formato de cuadrícula adaptable.</t>
   </si>
   <si>
-    <t>El sistema debe mostrar para cada producto: imagen, nombre, comunidad artesanal y precio.</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir un botón 'Agregar al carrito' en cada tarjeta de producto.</t>
-  </si>
-  <si>
     <t>El sistema debe incluir un botón de favoritos en cada producto.</t>
   </si>
   <si>
     <t>El sistema debe incluir una sección de comunidades artesanales con información visual.</t>
   </si>
   <si>
-    <t>El sistema debe incluir una sección de testimonios de clientes.</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir una sección de newsletter con campo para ingresar correo electrónico.</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir un botón 'Suscribirse' en la sección de newsletter.</t>
-  </si>
-  <si>
     <t>El sistema debe incluir un pie de página con logo VIVA y descripción de la empresa.</t>
   </si>
   <si>
@@ -287,9 +269,6 @@
   </si>
   <si>
     <t>El sistema debe incluir un panel lateral deslizable para el carrito de compras.</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar el carrito con un overlay oscuro semi-transparente cuando esté abierto.</t>
   </si>
   <si>
     <t>El sistema debe mostrar en el carrito el título 'Carrito' con un botón de cierre.</t>
@@ -813,21 +792,12 @@
     <t>El sistema debe permitir registrar productores con sus datos personales.</t>
   </si>
   <si>
-    <t>El sistema debe permitir registrar clientes con su país, ciudad, tipo y número de documento.</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar al usuario los tipos de identificación dependiendo del país.</t>
-  </si>
-  <si>
     <t>El sistema debe permitir al productor registrar productos con categoria, oficio, material y color.</t>
   </si>
   <si>
     <t>El sistema debe permitir que el productor publique sus productos con precio, descripción e imagen obligatoria.</t>
   </si>
   <si>
-    <t>El sistema debe gestionar el stock por productor y producto independientemente.</t>
-  </si>
-  <si>
     <t>El sistema debe activar automáticamente una oferta de un productor cuando su stock sea mayor que cero e inactivarla cuando sea cero.</t>
   </si>
   <si>
@@ -864,9 +834,6 @@
     <t>El sistema debe permitir agregar ítems a la factura (producto, productor, cantidad, valores).</t>
   </si>
   <si>
-    <t>El sistema debe calcular el valor final de cada ítem y de la factura aplicando el porcentaje de aranceles o impuestos  del país de destino cuando corresponda.</t>
-  </si>
-  <si>
     <t>El sistema debe registrar la forma de pago utilizada en cada factura.</t>
   </si>
   <si>
@@ -876,15 +843,6 @@
     <t>El sistema debe registrar movimientos de inventario por cada venta como salidas de stock del productor.</t>
   </si>
   <si>
-    <t>El sistema debe registrar movimientos de inventario por cada devolución del cliente como entradas de inventario.</t>
-  </si>
-  <si>
-    <t>El sistema debe registrar las devoluciones en un módulo de transito y no sumar el stock hasta el cierre de transito</t>
-  </si>
-  <si>
-    <t>El sistema debe sumar la cantidad de producto devuelto al stock cuando se cierre el transito.</t>
-  </si>
-  <si>
     <t>El sistema debe registrar todos los movimientos de inventario en un historial(kardex) con fecha, tipo de movimiento y cantidad.</t>
   </si>
   <si>
@@ -897,24 +855,15 @@
     <t>El sistema debe validar que no se creen envios con facturas inexistentes o anuladas.</t>
   </si>
   <si>
-    <t>El sistema debe permitir que un cliente actualice su informacion.</t>
-  </si>
-  <si>
     <t>El sistema debe permitir que el productor actualice su informacion.</t>
   </si>
   <si>
     <t>El sistema debe permitir que un productor se quite su rol de productor y no debera ver el modulo para productores.</t>
   </si>
   <si>
-    <t>El sistema debe incluir una lista de paises para que el registro de los clientes.</t>
-  </si>
-  <si>
     <t>El sistema debe incluir una lista de colores para asignar a los productos por lo cual debera ser extenso.</t>
   </si>
   <si>
-    <t>El sistema debe permitir que un producto se le asignen uno o mas colores.</t>
-  </si>
-  <si>
     <t>El sistema debe emitir las facturas según el rango de numeracion establecido por la DIAN.</t>
   </si>
   <si>
@@ -933,18 +882,12 @@
     <t>El sistema debe validar que no haya duplicidad en identificadores principalmente en clientes(CC) y facturas (Numero de factura)</t>
   </si>
   <si>
-    <t>El sistema debe permitir que un cliente vea todos los productos ofrecidos por un productor en especifico.</t>
-  </si>
-  <si>
     <t>El sistema debe incluir una lista de idiomas los cuales sean soportados por la plataforma para su visualizacion y comunicación</t>
   </si>
   <si>
     <t>El sistema debe impedir registrar compras o devoluciones con cantidades no positivas.</t>
   </si>
   <si>
-    <t>El sistema debe validar que la cantidad de la devolucion no sea mayor a la de la compra o valores negativos.</t>
-  </si>
-  <si>
     <t>El sistema debe incluir una lista de bancos para que los productores elijan el medio de pago en el cual se le consignaran los pagos.</t>
   </si>
   <si>
@@ -958,6 +901,48 @@
   </si>
   <si>
     <t>El sistema debe validar que la cuenta de nomina para el productor sea unica y exista.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar al usuario los tipos de identificación</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir que un usuario actualice su informacion.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir que un producto se le asigne solo un color</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir que un usuario vea todos los productos ofrecidos por un productor en especifico.</t>
+  </si>
+  <si>
+    <t>El sistema debe incluir un menú de navegación con enlaces a 'Inicio', 'Categorías' y 'Catalogo' visible en pantallas grandes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe mostrar para cada producto: imagen, nombre, comunidad artesanal </t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el carrito con un overlay  cuando esté abierto.</t>
+  </si>
+  <si>
+    <t>El sistema debe traer la informacion de los productos con un QUERY limitando a 4 productos</t>
+  </si>
+  <si>
+    <t>El sistema debe traer la informacion de los stands y renderizar su card de acuerdo a un query a la base de datos limit 3</t>
+  </si>
+  <si>
+    <t>El sistema necesita una plantilla para renderizar las cards de los productos, el script debe estar linkeado al index</t>
+  </si>
+  <si>
+    <t>El sistema necesita una plantilla para renderizar las cards de las categorias</t>
+  </si>
+  <si>
+    <t>Se debera hacer uso de la instancia de la base de datos para utilizar las consultas preparadas dentro del archivo</t>
+  </si>
+  <si>
+    <t>El sistema requiere un controlador en el cual se van a definir las variables mediante las querys a la base de datos</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1256,30 +1241,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1290,22 +1271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1314,54 +1280,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,11 +1299,92 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1681,10 +1687,864 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:I66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="153.140625" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="60.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="5">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="5">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="5">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="5">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="5">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="5">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="5">
+        <v>20</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="5">
+        <v>22</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="5">
+        <v>23</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="5">
+        <v>27</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="5">
+        <v>28</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="5">
+        <v>29</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="5">
+        <v>30</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="5">
+        <v>31</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="5">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="5">
+        <v>33</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="5">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="5">
+        <v>35</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="5">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="5">
+        <v>37</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="5">
+        <v>38</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="5">
+        <v>39</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="5">
+        <v>40</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="5">
+        <v>41</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="5">
+        <v>42</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="50"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="5">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="5">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="5">
+        <v>4</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="5">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="5">
+        <v>6</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="5">
+        <v>7</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="5">
+        <v>8</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="5">
+        <v>9</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="5">
+        <v>10</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="58">
+        <v>11</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" s="60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="58">
+        <v>12</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62" s="60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="58">
+        <v>13</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="58">
+        <v>14</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="58">
+        <v>15</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="58">
+        <v>16</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C49:D49"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661153BD-DCB1-4147-BD16-88361918A528}">
   <dimension ref="B2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
@@ -1700,735 +2560,793 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="F9" s="53" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="F9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="48">
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="31"/>
+      <c r="C10" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="38"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="49">
+      <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="33"/>
+      <c r="C11" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="31"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="49">
+      <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="31"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="49">
+      <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="33"/>
+      <c r="C13" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="31"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="49">
+      <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="33"/>
+      <c r="C14" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="31"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="49">
+      <c r="B15" s="16">
         <v>6</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="33"/>
+      <c r="C15" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="31"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="49">
+      <c r="B16" s="16">
         <v>7</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="35"/>
+      <c r="C16" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="25"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="49">
+      <c r="B17" s="16">
         <v>8</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="31"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="49">
+      <c r="B18" s="16">
         <v>9</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="33"/>
+      <c r="C18" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="31"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="49">
+      <c r="B19" s="16">
         <v>10</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="33"/>
+      <c r="C19" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="31"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="49">
+      <c r="B20" s="16">
         <v>11</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="49">
+      <c r="B21" s="16">
         <v>12</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="33"/>
+      <c r="C21" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="31"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="49">
+      <c r="B22" s="16">
         <v>13</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="33"/>
+      <c r="C22" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="31"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="49">
+      <c r="B23" s="16">
         <v>14</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="33"/>
+      <c r="C23" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="31"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="49">
+      <c r="B24" s="16">
         <v>15</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24" s="33"/>
+      <c r="C24" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="31"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="49">
+      <c r="B25" s="16">
         <v>16</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="33"/>
+        <v>222</v>
+      </c>
+      <c r="D25" s="31"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="49">
+      <c r="B26" s="16">
         <v>17</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="33"/>
+      <c r="C26" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="31"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="49">
+      <c r="B27" s="16">
         <v>18</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="33"/>
+      <c r="C27" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="31"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="49">
+      <c r="B28" s="16">
         <v>19</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" s="33"/>
+      <c r="C28" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="31"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="49">
+      <c r="B29" s="16">
         <v>20</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D29" s="33"/>
+      <c r="C29" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="31"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="49">
+      <c r="B30" s="16">
         <v>21</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="38"/>
+      <c r="C30" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="33"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="F33" s="53" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="F33" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="I33" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="50">
+      <c r="B34" s="17">
         <v>1</v>
       </c>
-      <c r="C34" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="35"/>
+      <c r="C34" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="51">
+      <c r="B35" s="18">
         <v>2</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D35" s="35"/>
+      <c r="C35" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="25"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="51">
+      <c r="B36" s="18">
         <v>3</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="35"/>
+      <c r="C36" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="25"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="51">
+      <c r="B37" s="18">
         <v>4</v>
       </c>
-      <c r="C37" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="35"/>
+      <c r="C37" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="25"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="51">
+      <c r="B38" s="18">
         <v>5</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" s="35"/>
+      <c r="C38" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="25"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="51">
+      <c r="B39" s="18">
         <v>7</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="D39" s="35"/>
+      <c r="C39" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="25"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="51">
+      <c r="B40" s="18">
         <v>8</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="35"/>
+      <c r="C40" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="25"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="51">
+      <c r="B41" s="18">
         <v>9</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="35"/>
+      <c r="C41" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="25"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="51">
+      <c r="B42" s="18">
         <v>10</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D42" s="35"/>
+      <c r="C42" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="25"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="51">
+      <c r="B43" s="18">
         <v>11</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="D43" s="35"/>
+      <c r="C43" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="25"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="51">
+      <c r="B44" s="18">
         <v>12</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="D44" s="35"/>
+      <c r="C44" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="25"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="51">
+      <c r="B45" s="18">
         <v>13</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45" s="35"/>
+      <c r="C45" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="25"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="51">
+      <c r="B46" s="18">
         <v>14</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
+      <c r="C46" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="52">
+      <c r="B47" s="19">
         <v>15</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="35"/>
+      <c r="C47" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="25"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="51">
+      <c r="B48" s="18">
         <v>16</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="D48" s="35"/>
+      <c r="C48" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="25"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="51">
+      <c r="B49" s="18">
         <v>17</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="D49" s="35"/>
+      <c r="C49" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="25"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="51">
+      <c r="B50" s="18">
         <v>18</v>
       </c>
-      <c r="C50" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50" s="35"/>
+      <c r="C50" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="25"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="51">
+      <c r="B51" s="18">
         <v>19</v>
       </c>
-      <c r="C51" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="35"/>
+      <c r="C51" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" s="25"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="51">
+      <c r="B52" s="18">
         <v>20</v>
       </c>
-      <c r="C52" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="35"/>
+      <c r="C52" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="25"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="51">
+      <c r="B53" s="18">
         <v>21</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="D53" s="35"/>
+      <c r="C53" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="25"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="51">
+      <c r="B54" s="18">
         <v>22</v>
       </c>
-      <c r="C54" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D54" s="44"/>
+      <c r="C54" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" s="27"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
@@ -2439,810 +3357,9 @@
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:I64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="153.140625" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="60.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="F9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="12">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="12">
-        <v>5</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="12">
-        <v>6</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="12">
-        <v>7</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="12">
-        <v>8</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="12">
-        <v>9</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="12">
-        <v>10</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="12">
-        <v>11</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="12">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="12">
-        <v>13</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="12">
-        <v>14</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="12">
-        <v>15</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="12">
-        <v>16</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="12">
-        <v>17</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="12">
-        <v>18</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="12">
-        <v>19</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="12">
-        <v>20</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="12">
-        <v>21</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="12">
-        <v>22</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="12">
-        <v>23</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="12">
-        <v>24</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="12">
-        <v>25</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="12">
-        <v>26</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="12">
-        <v>27</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="12">
-        <v>28</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="12">
-        <v>29</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="12">
-        <v>30</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="12">
-        <v>31</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="12">
-        <v>32</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="12">
-        <v>33</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="12">
-        <v>34</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="12">
-        <v>35</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="12">
-        <v>36</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="12">
-        <v>37</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="12">
-        <v>38</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="12">
-        <v>39</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="12">
-        <v>40</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="12">
-        <v>41</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="12">
-        <v>42</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F54" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="12">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C56" s="12">
-        <v>2</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="12">
-        <v>3</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="12">
-        <v>4</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="12">
-        <v>5</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="12">
-        <v>6</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="12">
-        <v>7</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="12">
-        <v>8</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="12">
-        <v>9</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="12">
-        <v>10</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C53:D53"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3267,16 +3384,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3311,36 +3428,36 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="49"/>
+      <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="12">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2"/>
@@ -3349,10 +3466,10 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="12">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="2"/>
@@ -3361,10 +3478,10 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="12">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="2"/>
@@ -3373,10 +3490,10 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="12">
+      <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="2"/>
@@ -3385,10 +3502,10 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="12">
+      <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="2"/>
@@ -3397,10 +3514,10 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="12">
+      <c r="C15" s="5">
         <v>6</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="2"/>
@@ -3409,10 +3526,10 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="12">
+      <c r="C16" s="5">
         <v>7</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="2"/>
@@ -3421,10 +3538,10 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="12">
+      <c r="C17" s="5">
         <v>8</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2"/>
@@ -3433,10 +3550,10 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="12">
+      <c r="C18" s="5">
         <v>9</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="2"/>
@@ -3445,10 +3562,10 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="12">
+      <c r="C19" s="5">
         <v>10</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="2"/>
@@ -3457,10 +3574,10 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="12">
+      <c r="C20" s="5">
         <v>11</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="2"/>
@@ -3469,10 +3586,10 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="12">
+      <c r="C21" s="5">
         <v>12</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="2"/>
@@ -3481,10 +3598,10 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="12">
+      <c r="C22" s="5">
         <v>13</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="2"/>
@@ -3493,10 +3610,10 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="12">
+      <c r="C23" s="5">
         <v>14</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="2"/>
@@ -3505,10 +3622,10 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="12">
+      <c r="C24" s="5">
         <v>15</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="2"/>
@@ -3517,10 +3634,10 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <v>16</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="2"/>
@@ -3529,10 +3646,10 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="12">
+      <c r="C26" s="5">
         <v>17</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="2"/>
@@ -3541,10 +3658,10 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="12">
+      <c r="C27" s="5">
         <v>18</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="2"/>
@@ -3553,10 +3670,10 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="12">
+      <c r="C28" s="5">
         <v>19</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="2"/>
@@ -3565,10 +3682,10 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="12">
+      <c r="C29" s="5">
         <v>20</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="2"/>
@@ -3577,10 +3694,10 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="12">
+      <c r="C30" s="5">
         <v>21</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="2"/>
@@ -3589,10 +3706,10 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="12">
+      <c r="C31" s="5">
         <v>22</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="2"/>
@@ -3601,10 +3718,10 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="12">
+      <c r="C32" s="5">
         <v>23</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="2"/>
@@ -3613,10 +3730,10 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="12">
+      <c r="C33" s="5">
         <v>24</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="2"/>
@@ -3625,10 +3742,10 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="12">
+      <c r="C34" s="5">
         <v>25</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="2"/>
@@ -3637,10 +3754,10 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="12">
+      <c r="C35" s="5">
         <v>26</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="2"/>
@@ -3649,10 +3766,10 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="12">
+      <c r="C36" s="5">
         <v>27</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F36" s="2"/>
@@ -3661,10 +3778,10 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="12">
+      <c r="C37" s="5">
         <v>28</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F37" s="2"/>
@@ -3673,10 +3790,10 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="12">
+      <c r="C38" s="5">
         <v>29</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F38" s="2"/>
@@ -3685,10 +3802,10 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="12">
+      <c r="C39" s="5">
         <v>30</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="2"/>
@@ -3697,10 +3814,10 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="12">
+      <c r="C40" s="5">
         <v>31</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="2"/>
@@ -3709,30 +3826,30 @@
       <c r="I40" s="2"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="51"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="12">
+      <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F44" s="2"/>
@@ -3741,10 +3858,10 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="12">
+      <c r="C45" s="5">
         <v>2</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="2"/>
@@ -3753,10 +3870,10 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="12">
+      <c r="C46" s="5">
         <v>3</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F46" s="2"/>
@@ -3765,10 +3882,10 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="12">
+      <c r="C47" s="5">
         <v>4</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F47" s="2"/>
@@ -3777,10 +3894,10 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="12">
+      <c r="C48" s="5">
         <v>5</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F48" s="2"/>
@@ -3789,10 +3906,10 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="12">
+      <c r="C49" s="5">
         <v>6</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F49" s="2"/>
@@ -3801,10 +3918,10 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="12">
+      <c r="C50" s="5">
         <v>7</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F50" s="2"/>
@@ -3842,16 +3959,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3886,37 +4003,37 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="51"/>
+      <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="20">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>104</v>
+      <c r="D10" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3924,11 +4041,11 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="20">
+      <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>105</v>
+      <c r="D11" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3936,11 +4053,11 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="20">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>106</v>
+      <c r="D12" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3948,11 +4065,11 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="20">
+      <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>107</v>
+      <c r="D13" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3960,11 +4077,11 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="20">
+      <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>108</v>
+      <c r="D14" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3972,11 +4089,11 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="20">
+      <c r="C15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>109</v>
+      <c r="D15" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3984,11 +4101,11 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="20">
+      <c r="C16" s="8">
         <v>7</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>110</v>
+      <c r="D16" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3996,11 +4113,11 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="20">
+      <c r="C17" s="8">
         <v>8</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>111</v>
+      <c r="D17" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4008,11 +4125,11 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="20">
+      <c r="C18" s="8">
         <v>9</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>112</v>
+      <c r="D18" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4020,11 +4137,11 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="20">
+      <c r="C19" s="8">
         <v>10</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>113</v>
+      <c r="D19" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4032,11 +4149,11 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="20">
+      <c r="C20" s="8">
         <v>11</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>114</v>
+      <c r="D20" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4044,11 +4161,11 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="20">
+      <c r="C21" s="8">
         <v>12</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>115</v>
+      <c r="D21" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4056,11 +4173,11 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="20">
+      <c r="C22" s="8">
         <v>13</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>116</v>
+      <c r="D22" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4068,11 +4185,11 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="20">
+      <c r="C23" s="8">
         <v>14</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>117</v>
+      <c r="D23" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4080,11 +4197,11 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="20">
+      <c r="C24" s="8">
         <v>15</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>118</v>
+      <c r="D24" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4092,11 +4209,11 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="20">
+      <c r="C25" s="8">
         <v>16</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>119</v>
+      <c r="D25" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4104,11 +4221,11 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="20">
+      <c r="C26" s="8">
         <v>17</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>120</v>
+      <c r="D26" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4116,11 +4233,11 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="20">
+      <c r="C27" s="8">
         <v>18</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>121</v>
+      <c r="D27" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4128,11 +4245,11 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="20">
+      <c r="C28" s="8">
         <v>19</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>122</v>
+      <c r="D28" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4140,11 +4257,11 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="20">
+      <c r="C29" s="8">
         <v>20</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>123</v>
+      <c r="D29" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4152,11 +4269,11 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="20">
+      <c r="C30" s="8">
         <v>21</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>124</v>
+      <c r="D30" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4164,11 +4281,11 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="20">
+      <c r="C31" s="8">
         <v>22</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>125</v>
+      <c r="D31" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4176,11 +4293,11 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="20">
+      <c r="C32" s="8">
         <v>23</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>126</v>
+      <c r="D32" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4188,11 +4305,11 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="20">
+      <c r="C33" s="8">
         <v>24</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>127</v>
+      <c r="D33" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4200,11 +4317,11 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="20">
+      <c r="C34" s="8">
         <v>25</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>128</v>
+      <c r="D34" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4212,11 +4329,11 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="20">
+      <c r="C35" s="8">
         <v>26</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>129</v>
+      <c r="D35" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4224,11 +4341,11 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="20">
+      <c r="C36" s="8">
         <v>27</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>130</v>
+      <c r="D36" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4236,11 +4353,11 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="20">
+      <c r="C37" s="8">
         <v>28</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>131</v>
+      <c r="D37" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4248,11 +4365,11 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="20">
+      <c r="C38" s="8">
         <v>29</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>132</v>
+      <c r="D38" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4260,11 +4377,11 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="20">
+      <c r="C39" s="8">
         <v>30</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>133</v>
+      <c r="D39" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4272,11 +4389,11 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="20">
+      <c r="C40" s="8">
         <v>31</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>134</v>
+      <c r="D40" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4284,11 +4401,11 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="20">
+      <c r="C41" s="8">
         <v>32</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>135</v>
+      <c r="D41" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4296,11 +4413,11 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="20">
+      <c r="C42" s="8">
         <v>33</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>136</v>
+      <c r="D42" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4308,11 +4425,11 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="20">
+      <c r="C43" s="8">
         <v>34</v>
       </c>
-      <c r="D43" s="21" t="s">
-        <v>137</v>
+      <c r="D43" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4320,11 +4437,11 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="20">
+      <c r="C44" s="8">
         <v>35</v>
       </c>
-      <c r="D44" s="21" t="s">
-        <v>138</v>
+      <c r="D44" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4332,31 +4449,31 @@
       <c r="I44" s="2"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="12">
+      <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>139</v>
+      <c r="D48" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -4364,11 +4481,11 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="12">
+      <c r="C49" s="5">
         <v>2</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>140</v>
+      <c r="D49" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -4376,11 +4493,11 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="12">
+      <c r="C50" s="5">
         <v>3</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>141</v>
+      <c r="D50" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -4388,11 +4505,11 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="12">
+      <c r="C51" s="5">
         <v>4</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>142</v>
+      <c r="D51" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -4400,11 +4517,11 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="12">
+      <c r="C52" s="5">
         <v>5</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>143</v>
+      <c r="D52" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -4412,11 +4529,11 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="12">
+      <c r="C53" s="5">
         <v>6</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>144</v>
+      <c r="D53" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -4424,11 +4541,11 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="12">
+      <c r="C54" s="5">
         <v>7</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>145</v>
+      <c r="D54" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4436,11 +4553,11 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="12">
+      <c r="C55" s="5">
         <v>8</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>146</v>
+      <c r="D55" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -4448,10 +4565,10 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="12">
+      <c r="C56" s="5">
         <v>9</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="2"/>
@@ -4489,16 +4606,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4533,61 +4650,61 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="51"/>
+      <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="12">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>148</v>
+      <c r="D10" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="12">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>149</v>
+      <c r="D11" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="12">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>150</v>
+      <c r="D12" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4595,11 +4712,11 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="12">
+      <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>108</v>
+      <c r="D13" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4607,11 +4724,11 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="12">
+      <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>151</v>
+      <c r="D14" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4619,11 +4736,11 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="12">
+      <c r="C15" s="5">
         <v>6</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>152</v>
+      <c r="D15" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4631,11 +4748,11 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="12">
+      <c r="C16" s="5">
         <v>7</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>153</v>
+      <c r="D16" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4643,11 +4760,11 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="12">
+      <c r="C17" s="5">
         <v>8</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>154</v>
+      <c r="D17" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4655,11 +4772,11 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="12">
+      <c r="C18" s="5">
         <v>9</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>155</v>
+      <c r="D18" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4667,11 +4784,11 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="12">
+      <c r="C19" s="5">
         <v>10</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>156</v>
+      <c r="D19" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4679,11 +4796,11 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="12">
+      <c r="C20" s="5">
         <v>11</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>157</v>
+      <c r="D20" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4691,11 +4808,11 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="12">
+      <c r="C21" s="5">
         <v>12</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>158</v>
+      <c r="D21" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4703,11 +4820,11 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="12">
+      <c r="C22" s="5">
         <v>13</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>159</v>
+      <c r="D22" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4715,11 +4832,11 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="12">
+      <c r="C23" s="5">
         <v>14</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>160</v>
+      <c r="D23" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4727,11 +4844,11 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="12">
+      <c r="C24" s="5">
         <v>15</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>161</v>
+      <c r="D24" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4739,23 +4856,23 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <v>16</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>162</v>
+      <c r="D25" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="12">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
         <v>17</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>163</v>
+      <c r="D26" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4763,23 +4880,23 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="12">
+      <c r="C27" s="5">
         <v>18</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>164</v>
+      <c r="D27" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="12">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="5">
         <v>19</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>165</v>
+      <c r="D28" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4787,11 +4904,11 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="12">
+      <c r="C29" s="5">
         <v>20</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>166</v>
+      <c r="D29" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4799,23 +4916,23 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="12">
+      <c r="C30" s="5">
         <v>21</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>167</v>
+      <c r="D30" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="12">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="5">
         <v>22</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>168</v>
+      <c r="D31" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4823,11 +4940,11 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="12">
+      <c r="C32" s="5">
         <v>23</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>169</v>
+      <c r="D32" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4835,11 +4952,11 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="12">
+      <c r="C33" s="5">
         <v>24</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>170</v>
+      <c r="D33" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4847,11 +4964,11 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="12">
+      <c r="C34" s="5">
         <v>25</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>171</v>
+      <c r="D34" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4859,11 +4976,11 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="12">
+      <c r="C35" s="5">
         <v>26</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>172</v>
+      <c r="D35" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4871,11 +4988,11 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="12">
+      <c r="C36" s="5">
         <v>27</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>173</v>
+      <c r="D36" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4883,11 +5000,11 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="12">
+      <c r="C37" s="5">
         <v>28</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>174</v>
+      <c r="D37" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4895,11 +5012,11 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="12">
+      <c r="C38" s="5">
         <v>29</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>175</v>
+      <c r="D38" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4907,11 +5024,11 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="12">
+      <c r="C39" s="5">
         <v>30</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>176</v>
+      <c r="D39" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4919,23 +5036,23 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="12">
+      <c r="C40" s="5">
         <v>31</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>177</v>
+      <c r="D40" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="12">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="5">
         <v>32</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>178</v>
+      <c r="D41" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4943,11 +5060,11 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="12">
+      <c r="C42" s="5">
         <v>33</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>179</v>
+      <c r="D42" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4955,23 +5072,23 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="12">
+      <c r="C43" s="5">
         <v>34</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>180</v>
+      <c r="D43" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="12">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="5">
         <v>35</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>181</v>
+      <c r="D44" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4979,23 +5096,23 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="12">
+      <c r="C45" s="5">
         <v>36</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>182</v>
+      <c r="D45" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="12">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="5">
         <v>37</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>183</v>
+      <c r="D46" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -5003,11 +5120,11 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="12">
+      <c r="C47" s="5">
         <v>38</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>184</v>
+      <c r="D47" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -5015,11 +5132,11 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="12">
+      <c r="C48" s="5">
         <v>39</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>185</v>
+      <c r="D48" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -5027,11 +5144,11 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="12">
+      <c r="C49" s="5">
         <v>40</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>186</v>
+      <c r="D49" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -5039,11 +5156,11 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="12">
+      <c r="C50" s="5">
         <v>41</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>187</v>
+      <c r="D50" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -5051,11 +5168,11 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="12">
+      <c r="C51" s="5">
         <v>42</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>188</v>
+      <c r="D51" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -5063,11 +5180,11 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="12">
+      <c r="C52" s="5">
         <v>43</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>189</v>
+      <c r="D52" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -5075,11 +5192,11 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="12">
+      <c r="C53" s="5">
         <v>44</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>190</v>
+      <c r="D53" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -5087,31 +5204,31 @@
       <c r="I53" s="2"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="51"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="23" t="s">
+      <c r="I56" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="12">
+      <c r="C57" s="5">
         <v>1</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>191</v>
+      <c r="D57" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -5119,11 +5236,11 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="12">
+      <c r="C58" s="5">
         <v>2</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>140</v>
+      <c r="D58" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -5131,11 +5248,11 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="12">
+      <c r="C59" s="5">
         <v>3</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>141</v>
+      <c r="D59" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -5143,11 +5260,11 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="12">
+      <c r="C60" s="5">
         <v>4</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>192</v>
+      <c r="D60" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -5155,11 +5272,11 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="12">
+      <c r="C61" s="5">
         <v>5</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>193</v>
+      <c r="D61" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -5167,11 +5284,11 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="12">
+      <c r="C62" s="5">
         <v>6</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>194</v>
+      <c r="D62" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -5179,11 +5296,11 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="12">
+      <c r="C63" s="5">
         <v>7</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>195</v>
+      <c r="D63" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -5191,11 +5308,11 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="12">
+      <c r="C64" s="5">
         <v>8</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>196</v>
+      <c r="D64" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -5203,10 +5320,10 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="12">
+      <c r="C65" s="5">
         <v>9</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F65" s="2"/>
@@ -5215,11 +5332,11 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="12">
+      <c r="C66" s="5">
         <v>10</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>103</v>
+      <c r="D66" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -5257,16 +5374,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -5301,37 +5418,37 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="51"/>
+      <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="12">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>197</v>
+      <c r="D10" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5339,11 +5456,11 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="12">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>198</v>
+      <c r="D11" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5351,23 +5468,23 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="12">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>199</v>
+      <c r="D12" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="12">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>200</v>
+      <c r="D13" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5375,11 +5492,11 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="12">
+      <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>201</v>
+      <c r="D14" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -5387,11 +5504,11 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="12">
+      <c r="C15" s="5">
         <v>6</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>202</v>
+      <c r="D15" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5399,11 +5516,11 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="12">
+      <c r="C16" s="5">
         <v>7</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>203</v>
+      <c r="D16" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -5411,11 +5528,11 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="12">
+      <c r="C17" s="5">
         <v>8</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>204</v>
+      <c r="D17" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5423,11 +5540,11 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="12">
+      <c r="C18" s="5">
         <v>9</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>205</v>
+      <c r="D18" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5435,23 +5552,23 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="12">
+      <c r="C19" s="5">
         <v>10</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>206</v>
+      <c r="D19" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="12">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="5">
         <v>11</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>207</v>
+      <c r="D20" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5459,31 +5576,31 @@
       <c r="I20" s="2"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="12">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>208</v>
+      <c r="D24" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -5491,11 +5608,11 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <v>2</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>209</v>
+      <c r="D25" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -5503,11 +5620,11 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="12">
+      <c r="C26" s="5">
         <v>3</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>210</v>
+      <c r="D26" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -5515,10 +5632,10 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="12">
+      <c r="C27" s="5">
         <v>4</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="2"/>
@@ -5527,11 +5644,11 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="12">
+      <c r="C28" s="5">
         <v>5</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>211</v>
+      <c r="D28" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -5551,10 +5668,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F66246-78FA-4E46-BC75-E6EFAC710DAD}">
-  <dimension ref="B2:I71"/>
+  <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5566,895 +5683,895 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="F9" s="53" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="F9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="49">
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="F10" s="57" t="s">
+        <v>291</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="49">
+      <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="F11" s="57" t="s">
+        <v>291</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="49">
+      <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="F12" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="49">
+      <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="F13" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="49">
+      <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="F14" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="49">
-        <v>6</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="55"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="16">
+        <v>7</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="F15" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="49">
-        <v>7</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="16">
+        <v>8</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="F16" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="49">
-        <v>8</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="16">
+        <v>9</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="F17" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="49">
-        <v>9</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="B18" s="16">
+        <v>11</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="F18" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="49">
-        <v>10</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="B19" s="16">
+        <v>12</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="F19" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="49">
-        <v>11</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="B20" s="16">
+        <v>13</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="F20" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="49">
-        <v>12</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="B21" s="16">
+        <v>14</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="F21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="49">
-        <v>13</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="16">
+        <v>15</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="F22" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="49">
-        <v>14</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="F23" s="2"/>
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16">
+        <v>16</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="F23" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="49">
-        <v>15</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="55"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="16">
+        <v>17</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="F24" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="49">
-        <v>16</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="55"/>
-      <c r="F25" s="2"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="16">
+        <v>18</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="F25" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="49">
-        <v>17</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="16">
+        <v>19</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="F26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="49">
-        <v>18</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="D27" s="55"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="16">
+        <v>20</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="F27" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="49">
-        <v>19</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="55"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="B28" s="16">
+        <v>21</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="F28" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="49">
-        <v>20</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="55"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="B29" s="16">
+        <v>22</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="F29" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="49">
-        <v>21</v>
+      <c r="B30" s="16">
+        <v>24</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D30" s="55"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="49">
-        <v>22</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="55"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="B31" s="16">
+        <v>25</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="F31" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="49">
-        <v>23</v>
+      <c r="B32" s="16">
+        <v>26</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D32" s="55"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="49">
-        <v>24</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="F33" s="2"/>
+      <c r="B33" s="16">
+        <v>30</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="F33" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="49">
-        <v>25</v>
+      <c r="B34" s="16">
+        <v>31</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D34" s="55"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="49">
-        <v>26</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="16">
+        <v>32</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="F35" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="49">
-        <v>27</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="F36" s="2"/>
+      <c r="B36" s="16">
+        <v>33</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="F36" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="49">
-        <v>28</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="F37" s="2"/>
+      <c r="B37" s="16">
+        <v>34</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="F37" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="49">
-        <v>29</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="F38" s="2"/>
+      <c r="B38" s="16">
+        <v>35</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="55"/>
+      <c r="F38" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="49">
-        <v>30</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="D39" s="56"/>
+      <c r="B39" s="16">
+        <v>36</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="55"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="49">
-        <v>31</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="F40" s="2"/>
+      <c r="B40" s="16">
+        <v>38</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="55"/>
+      <c r="F40" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="49">
-        <v>32</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" s="56"/>
-      <c r="F41" s="2"/>
+      <c r="B41" s="16">
+        <v>39</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="F41" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="49">
-        <v>33</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="F42" s="2"/>
+      <c r="B42" s="16">
+        <v>40</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="55"/>
+      <c r="F42" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="49">
-        <v>34</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="D43" s="56"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="16">
+        <v>41</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="F43" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="49">
-        <v>35</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="56"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="16">
+        <v>42</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" s="55"/>
+      <c r="F44" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="49">
-        <v>36</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="D45" s="56"/>
-      <c r="F45" s="2"/>
+      <c r="B45" s="16">
+        <v>43</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="55"/>
+      <c r="F45" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="49">
-        <v>37</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="D46" s="56"/>
-      <c r="F46" s="2"/>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="16">
+        <v>44</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="55"/>
+      <c r="F46" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="49">
-        <v>38</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="D47" s="56"/>
-      <c r="F47" s="2"/>
+      <c r="B47" s="16">
+        <v>45</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" s="55"/>
+      <c r="F47" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="49">
-        <v>39</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="D48" s="56"/>
-      <c r="F48" s="2"/>
+      <c r="B48" s="16">
+        <v>46</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="55"/>
+      <c r="F48" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="49">
-        <v>40</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="D49" s="56"/>
+      <c r="B49" s="16">
+        <v>47</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" s="55"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="49">
-        <v>41</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="D50" s="56"/>
-      <c r="F50" s="2"/>
+      <c r="B50" s="16">
+        <v>48</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" s="55"/>
+      <c r="F50" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="49">
-        <v>42</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="D51" s="56"/>
-      <c r="F51" s="2"/>
+      <c r="B51" s="16">
+        <v>50</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="55"/>
+      <c r="F51" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="49">
-        <v>43</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="D52" s="56"/>
-      <c r="F52" s="2"/>
+      <c r="B52" s="16">
+        <v>51</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" s="55"/>
+      <c r="F52" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="49">
-        <v>44</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="D53" s="56"/>
-      <c r="F53" s="2"/>
+      <c r="B53" s="16">
+        <v>52</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="55"/>
+      <c r="F53" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="49">
-        <v>45</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="D54" s="56"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="B54" s="16">
+        <v>53</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="55"/>
+      <c r="F54" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="49">
-        <v>46</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="D55" s="56"/>
-      <c r="F55" s="2"/>
+      <c r="B55" s="16">
+        <v>54</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="55"/>
+      <c r="F55" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="49">
-        <v>47</v>
-      </c>
-      <c r="C56" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="D56" s="56"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="49">
-        <v>48</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="D57" s="56"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="49">
-        <v>49</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="D58" s="56"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="49">
-        <v>50</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="D59" s="56"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="49">
-        <v>51</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="D60" s="56"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="49">
-        <v>52</v>
-      </c>
-      <c r="C61" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="D61" s="56"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="49">
-        <v>53</v>
-      </c>
-      <c r="C62" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="D62" s="56"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="49">
-        <v>54</v>
-      </c>
-      <c r="C63" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="D63" s="56"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="34"/>
-      <c r="D64" s="39"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="34"/>
-      <c r="D65" s="39"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="34"/>
-      <c r="D66" s="39"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="34"/>
-      <c r="D67" s="39"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="34"/>
-      <c r="D68" s="39"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="34"/>
-      <c r="D69" s="39"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="34"/>
-      <c r="D70" s="39"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="34"/>
-      <c r="D71" s="39"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
+  <mergeCells count="60">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Requerimiento.xlsx
+++ b/docs/Requerimiento.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\Apache24\htdocs\viva\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7F870-3CDD-4E36-B487-202E2083BA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9F9256-E7F8-4398-A540-F0BD24E21623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INDEX_LANDING" sheetId="3" r:id="rId1"/>
+    <sheet name="Landing" sheetId="3" r:id="rId1"/>
     <sheet name="Login " sheetId="7" r:id="rId2"/>
     <sheet name="REGISTRO_VENDEDOR" sheetId="2" r:id="rId3"/>
     <sheet name="MIS_PRODUCTOS" sheetId="4" r:id="rId4"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="303">
   <si>
     <t>SI</t>
   </si>
@@ -304,16 +304,10 @@
     <t>El sistema debe implementar desplazamiento suave al navegar entre secciones.</t>
   </si>
   <si>
-    <t>El sistema debe responder a las interacciones del usuario en menos de 1 segundo.</t>
-  </si>
-  <si>
     <t>El sistema debe optimizar las imágenes para carga rápida.</t>
   </si>
   <si>
     <t>El sistema debe mantener el carrito de compras entre sesiones del usuario.</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar animaciones suaves en las transiciones visuales.</t>
   </si>
   <si>
     <t>El sistema debe cerrar automáticamente los menús desplegables al hacer clic fuera de ellos.</t>
@@ -1300,50 +1294,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1361,6 +1314,50 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1371,20 +1368,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1688,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:I66"/>
+  <dimension ref="B2:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,16 +1699,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1749,20 +1743,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="28"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1776,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1796,7 +1790,7 @@
         <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1810,7 +1804,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1824,7 +1818,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1838,7 +1832,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1849,10 +1843,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1866,7 +1860,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1880,7 +1874,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1894,7 +1888,7 @@
         <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1908,7 +1902,7 @@
         <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1922,7 +1916,7 @@
         <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1936,7 +1930,7 @@
         <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1950,7 +1944,7 @@
         <v>64</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1964,7 +1958,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1978,7 +1972,7 @@
         <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1992,7 +1986,7 @@
         <v>67</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2006,7 +2000,7 @@
         <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2020,7 +2014,7 @@
         <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2034,7 +2028,7 @@
         <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2045,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2056,13 +2050,13 @@
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2070,13 +2064,13 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2084,13 +2078,13 @@
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2098,13 +2092,13 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2112,13 +2106,13 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2126,13 +2120,13 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="5">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2140,13 +2134,13 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2154,13 +2148,13 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2168,13 +2162,13 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2182,13 +2176,13 @@
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2196,13 +2190,13 @@
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2210,13 +2204,13 @@
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="5">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2224,27 +2218,27 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2252,13 +2246,13 @@
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="5">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2266,13 +2260,13 @@
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>85</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2280,13 +2274,13 @@
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="5">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2294,23 +2288,23 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C47" s="5">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>87</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F50" s="7" t="s">
@@ -2334,7 +2328,7 @@
         <v>88</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2348,11 +2342,9 @@
         <v>89</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
@@ -2364,7 +2356,7 @@
         <v>90</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2378,7 +2370,7 @@
         <v>91</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2391,7 +2383,9 @@
       <c r="D55" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -2401,10 +2395,10 @@
         <v>6</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -2415,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -2432,7 +2426,7 @@
         <v>94</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2443,10 +2437,10 @@
         <v>9</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2457,76 +2451,74 @@
         <v>10</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="58">
+      <c r="C61" s="5">
         <v>11</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="F61" s="60" t="s">
-        <v>291</v>
-      </c>
+      <c r="F61" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="58">
+      <c r="C62" s="5">
         <v>12</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F62" s="60" t="s">
-        <v>291</v>
-      </c>
+      <c r="F62" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="58">
+      <c r="C63" s="5">
         <v>13</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="F63" s="60" t="s">
-        <v>291</v>
-      </c>
+      <c r="F63" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="58">
+      <c r="C64" s="5">
         <v>14</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F64" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="58">
-        <v>15</v>
-      </c>
-      <c r="D65" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="F65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="58">
-        <v>16</v>
-      </c>
-      <c r="D66" s="59" t="s">
-        <v>304</v>
+      <c r="F64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="58">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2560,25 +2552,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -2589,10 +2581,10 @@
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -2603,10 +2595,10 @@
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -2614,10 +2606,10 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
@@ -2627,11 +2619,11 @@
       <c r="I6" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="F9" s="20" t="s">
         <v>0</v>
       </c>
@@ -2649,10 +2641,10 @@
       <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="38"/>
+      <c r="C10" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="39"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2663,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" s="31"/>
       <c r="F11" s="2"/>
@@ -2689,7 +2681,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" s="31"/>
       <c r="F13" s="2"/>
@@ -2702,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D14" s="31"/>
       <c r="F14" s="2"/>
@@ -2715,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" s="31"/>
       <c r="F15" s="2"/>
@@ -2727,10 +2719,10 @@
       <c r="B16" s="16">
         <v>7</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="25"/>
+      <c r="C16" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="41"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2754,7 +2746,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D18" s="31"/>
       <c r="F18" s="2"/>
@@ -2767,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" s="31"/>
       <c r="F19" s="2"/>
@@ -2793,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D21" s="31"/>
       <c r="F21" s="2"/>
@@ -2806,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D22" s="31"/>
       <c r="F22" s="2"/>
@@ -2819,7 +2811,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D23" s="31"/>
       <c r="F23" s="2"/>
@@ -2832,7 +2824,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D24" s="31"/>
       <c r="F24" s="2"/>
@@ -2844,8 +2836,8 @@
       <c r="B25" s="16">
         <v>16</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>222</v>
+      <c r="C25" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="D25" s="31"/>
       <c r="F25" s="2"/>
@@ -2858,7 +2850,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" s="31"/>
       <c r="F26" s="2"/>
@@ -2871,7 +2863,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D27" s="31"/>
       <c r="F27" s="2"/>
@@ -2884,7 +2876,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D28" s="31"/>
       <c r="F28" s="2"/>
@@ -2897,7 +2889,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D29" s="31"/>
       <c r="F29" s="2"/>
@@ -2909,29 +2901,29 @@
       <c r="B30" s="16">
         <v>21</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="33"/>
+      <c r="C30" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="45"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="F33" s="20" t="s">
         <v>0</v>
       </c>
@@ -2949,10 +2941,10 @@
       <c r="B34" s="17">
         <v>1</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="25"/>
+      <c r="C34" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="41"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2962,10 +2954,10 @@
       <c r="B35" s="18">
         <v>2</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="25"/>
+      <c r="C35" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="41"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2975,10 +2967,10 @@
       <c r="B36" s="18">
         <v>3</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="25"/>
+      <c r="C36" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="41"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2988,10 +2980,10 @@
       <c r="B37" s="18">
         <v>4</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="25"/>
+      <c r="C37" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="41"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -3001,10 +2993,10 @@
       <c r="B38" s="18">
         <v>5</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="25"/>
+      <c r="C38" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="41"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -3014,10 +3006,10 @@
       <c r="B39" s="18">
         <v>7</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="D39" s="25"/>
+      <c r="C39" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="41"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3027,10 +3019,10 @@
       <c r="B40" s="18">
         <v>8</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="25"/>
+      <c r="C40" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="41"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -3040,10 +3032,10 @@
       <c r="B41" s="18">
         <v>9</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D41" s="25"/>
+      <c r="C41" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="41"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -3053,10 +3045,10 @@
       <c r="B42" s="18">
         <v>10</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="25"/>
+      <c r="C42" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="41"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -3066,10 +3058,10 @@
       <c r="B43" s="18">
         <v>11</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43" s="25"/>
+      <c r="C43" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="41"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -3079,10 +3071,10 @@
       <c r="B44" s="18">
         <v>12</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="25"/>
+      <c r="C44" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="41"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -3092,10 +3084,10 @@
       <c r="B45" s="18">
         <v>13</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" s="25"/>
+      <c r="C45" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="41"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -3105,10 +3097,10 @@
       <c r="B46" s="18">
         <v>14</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D46" s="29"/>
+      <c r="C46" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="48"/>
       <c r="E46" s="14"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3119,10 +3111,10 @@
       <c r="B47" s="19">
         <v>15</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D47" s="25"/>
+      <c r="C47" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="41"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -3132,10 +3124,10 @@
       <c r="B48" s="18">
         <v>16</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="D48" s="25"/>
+      <c r="C48" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="41"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -3145,10 +3137,10 @@
       <c r="B49" s="18">
         <v>17</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="25"/>
+      <c r="C49" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="41"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -3158,10 +3150,10 @@
       <c r="B50" s="18">
         <v>18</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D50" s="25"/>
+      <c r="C50" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="41"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -3171,10 +3163,10 @@
       <c r="B51" s="18">
         <v>19</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D51" s="25"/>
+      <c r="C51" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="41"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -3184,10 +3176,10 @@
       <c r="B52" s="18">
         <v>20</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="25"/>
+      <c r="C52" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="41"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3197,10 +3189,10 @@
       <c r="B53" s="18">
         <v>21</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D53" s="25"/>
+      <c r="C53" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="41"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3210,85 +3202,141 @@
       <c r="B54" s="18">
         <v>22</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" s="27"/>
+      <c r="C54" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="51"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C3:D3"/>
@@ -3301,62 +3349,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3384,16 +3376,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3428,20 +3420,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="28"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -3826,10 +3818,10 @@
       <c r="I40" s="2"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="51"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F43" s="3" t="s">
@@ -3959,16 +3951,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4003,20 +3995,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4045,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4057,7 +4049,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4069,7 +4061,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4081,7 +4073,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4093,7 +4085,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4105,7 +4097,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4117,7 +4109,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4129,7 +4121,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4141,7 +4133,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4153,7 +4145,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4165,7 +4157,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4177,7 +4169,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4189,7 +4181,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4201,7 +4193,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4213,7 +4205,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4225,7 +4217,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4237,7 +4229,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4249,7 +4241,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4261,7 +4253,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4273,7 +4265,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4285,7 +4277,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4297,7 +4289,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4309,7 +4301,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4321,7 +4313,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4333,7 +4325,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4345,7 +4337,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4357,7 +4349,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4369,7 +4361,7 @@
         <v>29</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4381,7 +4373,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4393,7 +4385,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4405,7 +4397,7 @@
         <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4417,7 +4409,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4429,7 +4421,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4441,7 +4433,7 @@
         <v>35</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4449,10 +4441,10 @@
       <c r="I44" s="2"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="51"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F47" s="3" t="s">
@@ -4473,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -4485,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -4497,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -4509,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -4521,7 +4513,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -4533,7 +4525,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -4545,7 +4537,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4557,7 +4549,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -4606,16 +4598,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4650,20 +4642,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -4680,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4692,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4704,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4716,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4728,7 +4720,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4740,7 +4732,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4752,7 +4744,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4764,7 +4756,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4776,7 +4768,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4788,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4800,7 +4792,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4812,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4824,7 +4816,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4836,7 +4828,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4848,7 +4840,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4860,7 +4852,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4872,7 +4864,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4884,7 +4876,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4896,7 +4888,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4908,7 +4900,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4920,7 +4912,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4932,7 +4924,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4944,7 +4936,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4956,7 +4948,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4968,7 +4960,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4980,7 +4972,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4992,7 +4984,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -5004,7 +4996,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -5016,7 +5008,7 @@
         <v>29</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -5028,7 +5020,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -5040,7 +5032,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -5052,7 +5044,7 @@
         <v>32</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -5064,7 +5056,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -5076,7 +5068,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -5088,7 +5080,7 @@
         <v>35</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -5100,7 +5092,7 @@
         <v>36</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -5112,7 +5104,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -5124,7 +5116,7 @@
         <v>38</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -5136,7 +5128,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -5148,7 +5140,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -5160,7 +5152,7 @@
         <v>41</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -5172,7 +5164,7 @@
         <v>42</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -5184,7 +5176,7 @@
         <v>43</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -5196,7 +5188,7 @@
         <v>44</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -5204,10 +5196,10 @@
       <c r="I53" s="2"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="51"/>
+      <c r="D55" s="52"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F56" s="3" t="s">
@@ -5228,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -5240,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -5252,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -5264,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -5276,7 +5268,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -5288,7 +5280,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -5300,7 +5292,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -5312,7 +5304,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -5336,7 +5328,7 @@
         <v>10</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -5374,16 +5366,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -5418,20 +5410,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -5448,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5460,7 +5452,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5472,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5484,7 +5476,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5496,7 +5488,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -5508,7 +5500,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5520,7 +5512,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -5532,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5544,7 +5536,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5556,7 +5548,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5568,7 +5560,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5576,10 +5568,10 @@
       <c r="I20" s="2"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F23" s="3" t="s">
@@ -5600,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -5612,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -5624,7 +5616,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -5648,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -5670,8 +5662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F66246-78FA-4E46-BC75-E6EFAC710DAD}">
   <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5683,25 +5675,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -5712,10 +5704,10 @@
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -5726,10 +5718,10 @@
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -5737,10 +5729,10 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
@@ -5750,11 +5742,11 @@
       <c r="I6" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="F9" s="20" t="s">
         <v>0</v>
       </c>
@@ -5773,11 +5765,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="56"/>
-      <c r="F10" s="57" t="s">
-        <v>291</v>
+      <c r="F10" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5788,11 +5780,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" s="56"/>
-      <c r="F11" s="57" t="s">
-        <v>291</v>
+      <c r="F11" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5803,11 +5795,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D12" s="56"/>
       <c r="F12" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5818,11 +5810,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D13" s="56"/>
       <c r="F13" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5833,11 +5825,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" s="56"/>
       <c r="F14" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5848,11 +5840,11 @@
         <v>7</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D15" s="56"/>
       <c r="F15" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -5863,11 +5855,11 @@
         <v>8</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D16" s="56"/>
       <c r="F16" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5878,11 +5870,11 @@
         <v>9</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D17" s="56"/>
       <c r="F17" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5893,14 +5885,14 @@
         <v>11</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D18" s="56"/>
       <c r="F18" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -5910,14 +5902,14 @@
         <v>12</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D19" s="56"/>
       <c r="F19" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -5927,14 +5919,14 @@
         <v>13</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D20" s="56"/>
       <c r="F20" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -5944,14 +5936,14 @@
         <v>14</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D21" s="56"/>
       <c r="F21" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -5961,11 +5953,11 @@
         <v>15</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D22" s="56"/>
       <c r="F22" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -5976,11 +5968,11 @@
         <v>16</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D23" s="56"/>
       <c r="F23" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -5991,11 +5983,11 @@
         <v>17</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" s="56"/>
       <c r="F24" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -6006,11 +5998,11 @@
         <v>18</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" s="56"/>
       <c r="F25" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -6021,15 +6013,13 @@
         <v>19</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D26" s="56"/>
       <c r="F26" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
@@ -6038,11 +6028,11 @@
         <v>20</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D27" s="56"/>
       <c r="F27" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -6053,15 +6043,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D28" s="56"/>
       <c r="F28" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
@@ -6070,15 +6058,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D29" s="56"/>
       <c r="F29" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
@@ -6086,16 +6072,14 @@
       <c r="B30" s="16">
         <v>24</v>
       </c>
-      <c r="C30" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="D30" s="55"/>
+      <c r="C30" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="57"/>
       <c r="F30" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
@@ -6104,15 +6088,13 @@
         <v>25</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D31" s="56"/>
       <c r="F31" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
@@ -6120,12 +6102,12 @@
       <c r="B32" s="16">
         <v>26</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="55"/>
+      <c r="C32" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="57"/>
       <c r="F32" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -6135,12 +6117,12 @@
       <c r="B33" s="16">
         <v>30</v>
       </c>
-      <c r="C33" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="55"/>
+      <c r="C33" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="57"/>
       <c r="F33" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -6150,12 +6132,12 @@
       <c r="B34" s="16">
         <v>31</v>
       </c>
-      <c r="C34" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="55"/>
+      <c r="C34" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="57"/>
       <c r="F34" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -6165,12 +6147,12 @@
       <c r="B35" s="16">
         <v>32</v>
       </c>
-      <c r="C35" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="D35" s="55"/>
+      <c r="C35" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="57"/>
       <c r="F35" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -6180,12 +6162,12 @@
       <c r="B36" s="16">
         <v>33</v>
       </c>
-      <c r="C36" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="D36" s="55"/>
+      <c r="C36" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="57"/>
       <c r="F36" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -6195,12 +6177,12 @@
       <c r="B37" s="16">
         <v>34</v>
       </c>
-      <c r="C37" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="D37" s="55"/>
+      <c r="C37" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" s="57"/>
       <c r="F37" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -6210,12 +6192,12 @@
       <c r="B38" s="16">
         <v>35</v>
       </c>
-      <c r="C38" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="D38" s="55"/>
+      <c r="C38" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" s="57"/>
       <c r="F38" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -6225,13 +6207,13 @@
       <c r="B39" s="16">
         <v>36</v>
       </c>
-      <c r="C39" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="55"/>
+      <c r="C39" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="57"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -6240,12 +6222,12 @@
       <c r="B40" s="16">
         <v>38</v>
       </c>
-      <c r="C40" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" s="55"/>
+      <c r="C40" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="57"/>
       <c r="F40" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -6255,12 +6237,12 @@
       <c r="B41" s="16">
         <v>39</v>
       </c>
-      <c r="C41" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="D41" s="55"/>
+      <c r="C41" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="57"/>
       <c r="F41" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -6270,12 +6252,12 @@
       <c r="B42" s="16">
         <v>40</v>
       </c>
-      <c r="C42" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="D42" s="55"/>
+      <c r="C42" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="57"/>
       <c r="F42" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -6285,12 +6267,12 @@
       <c r="B43" s="16">
         <v>41</v>
       </c>
-      <c r="C43" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="D43" s="55"/>
+      <c r="C43" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="57"/>
       <c r="F43" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -6300,12 +6282,12 @@
       <c r="B44" s="16">
         <v>42</v>
       </c>
-      <c r="C44" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="D44" s="55"/>
+      <c r="C44" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="57"/>
       <c r="F44" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -6315,12 +6297,12 @@
       <c r="B45" s="16">
         <v>43</v>
       </c>
-      <c r="C45" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="D45" s="55"/>
+      <c r="C45" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" s="57"/>
       <c r="F45" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -6330,12 +6312,12 @@
       <c r="B46" s="16">
         <v>44</v>
       </c>
-      <c r="C46" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="55"/>
+      <c r="C46" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" s="57"/>
       <c r="F46" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -6345,12 +6327,12 @@
       <c r="B47" s="16">
         <v>45</v>
       </c>
-      <c r="C47" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="55"/>
+      <c r="C47" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" s="57"/>
       <c r="F47" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -6360,12 +6342,12 @@
       <c r="B48" s="16">
         <v>46</v>
       </c>
-      <c r="C48" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="D48" s="55"/>
+      <c r="C48" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" s="57"/>
       <c r="F48" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -6375,13 +6357,13 @@
       <c r="B49" s="16">
         <v>47</v>
       </c>
-      <c r="C49" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="D49" s="55"/>
+      <c r="C49" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="57"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -6390,12 +6372,12 @@
       <c r="B50" s="16">
         <v>48</v>
       </c>
-      <c r="C50" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="D50" s="55"/>
+      <c r="C50" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="D50" s="57"/>
       <c r="F50" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -6405,12 +6387,12 @@
       <c r="B51" s="16">
         <v>50</v>
       </c>
-      <c r="C51" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="D51" s="55"/>
+      <c r="C51" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="57"/>
       <c r="F51" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -6420,12 +6402,12 @@
       <c r="B52" s="16">
         <v>51</v>
       </c>
-      <c r="C52" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="D52" s="55"/>
+      <c r="C52" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" s="57"/>
       <c r="F52" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -6435,12 +6417,12 @@
       <c r="B53" s="16">
         <v>52</v>
       </c>
-      <c r="C53" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="D53" s="55"/>
+      <c r="C53" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="D53" s="57"/>
       <c r="F53" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -6450,15 +6432,13 @@
       <c r="B54" s="16">
         <v>53</v>
       </c>
-      <c r="C54" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="D54" s="55"/>
-      <c r="F54" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="C54" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="57"/>
+      <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -6467,61 +6447,97 @@
       <c r="B55" s="16">
         <v>54</v>
       </c>
-      <c r="C55" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="D55" s="55"/>
+      <c r="C55" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="57"/>
       <c r="F55" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="24"/>
-      <c r="D56" s="22"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="24"/>
-      <c r="D57" s="22"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="24"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="24"/>
-      <c r="D59" s="22"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="24"/>
-      <c r="D60" s="22"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="24"/>
-      <c r="D61" s="22"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="24"/>
-      <c r="D62" s="22"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="24"/>
-      <c r="D63" s="22"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C15:D15"/>
@@ -6534,44 +6550,16 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Requerimiento.xlsx
+++ b/docs/Requerimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\Apache24\htdocs\viva\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9F9256-E7F8-4398-A540-F0BD24E21623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829C7E0D-7954-4A2C-A97D-83AD5A523B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Landing" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="299">
   <si>
     <t>SI</t>
   </si>
@@ -61,15 +61,6 @@
     <t>REQUERIMIENTOS FUNCIONALES</t>
   </si>
   <si>
-    <t>El sistema debe permitir la creación de una nueva cuenta de usuario mediante un formulario de registro que solicite los siguientes campos: nombre, apellido, correo y contraseña.</t>
-  </si>
-  <si>
-    <t>El sistema debe redirigir al usuario a una página principal específica según su rol (e.g., administrador, cliente) tras un inicio de sesión exitoso.</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir el registro de usuarios mediante autenticación con cuentas de Google.</t>
-  </si>
-  <si>
     <t>REQUERIMIENTOS NO FUNCIONALES</t>
   </si>
   <si>
@@ -652,61 +643,6 @@
     <t>MODULO LOGIN</t>
   </si>
   <si>
-    <t>El sistema debe proporcionar un encabezado principal con el logo de "VIVA" ubicado en la parte superior izquierda de la página.</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir un menú de navegación con enlaces a las secciones: "Inicio", "Productos", "Nuestra Historia" y "Contacto".</t>
-  </si>
-  <si>
-    <t>El sistema debe procesar y almacenar los datos del formulario de registro (Nombre, Apellido, Email, Contraseña) .</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar un mensaje de confirmación (acierto) o error tras procesar el formulario de registro (e.g., "Registro exitoso" o "El email ya está registrado").</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir un botón "Iniciar Sesión" en el formulario de inicio de sesión que procese los datos ingresados para autenticar al usuario.</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar un mensaje de error o de acierto en el registro</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar un mensaje de confirmación (acierto) o error tras procesar el formulario de inicio de sesión (e.g., "Inicio de sesión exitoso" o "Credenciales incorrectas").</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir una sección de recuperación de contraseña con un enlace o apartado "Olvidaste tu contraseña" en el módulo de inicio de sesión.</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir el inicio de sesión de usuarios mediante autenticación con cuentas de Google.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema debe incluir un texto alternativo en el formulario de inicio de sesión: "o usa tu cuenta", para indicar la posibilidad de autenticación mediante Google </t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar un mensaje de bienvenida para usuarios existentes: "¡Bienvenido de nuevo!" en la sección de inicio de sesión.</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar un mensaje de bienvenida para nuevos usuarios: "¡Hola, Amigo!" en la sección de registro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema debe mostrar un mensaje explicativo en la sección de inicio de sesión: "Para mantenerte conectado con nosotros, por favor inicia sesión con tu información personal".
-</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar un mensaje descriptivo en la sección de registro: "Descubre una artesanía que cuente nuestra historia".</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir un enlace o botón repetido "Iniciar Sesión" en la sección de bienvenida para redirigir al formulario de inicio de sesión.</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir un enlace o botón repetido "Registrarse" en la sección de bienvenida para redirigir al formulario de registro.</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir en el pie de página un enlace a "Política de privacidad".</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir en el pie de página un enlace a "Términos y condiciones".</t>
-  </si>
-  <si>
     <t>El sistema debe utilizar un diseño visual con elementos como el logo, menús y formularios organizados en contenedores (divs) para una presentación clara y estructurada.</t>
   </si>
   <si>
@@ -717,18 +653,6 @@
   </si>
   <si>
     <t>El sistema debe incluir placeholders en los campos de formulario para guiar al usuario en la entrada de datos (e.g., "Nombre", "Apellido", "Email", "Contraseña").</t>
-  </si>
-  <si>
-    <t>El sistema debe asegurar que los campos de contraseña se muestren de manera oculta para proteger la privacidad del usuario.</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir enlaces a documentos legales (Política de privacidad y Términos y condiciones) para cumplir con requisitos de compliance y transparencia.</t>
-  </si>
-  <si>
-    <t>El sistema debe utilizar una estructura HTML semántica con elementos como header, nav, section y footer para mejorar la accesibilidad y SEO.</t>
-  </si>
-  <si>
-    <t>El sistema debe utilizar un diseño visual con elementos como encabezados, menús y formularios organizados en contenedores (divs) para una presentación clara y estructurada.</t>
   </si>
   <si>
     <t>El sistema debe manejar posibles errores en la entrada de datos, implementando validaciones para evitar vulnerabilidades como inyecciones SQL o entradas inválidas.</t>
@@ -750,9 +674,6 @@
     <t>El sistema debe implementar un mecanismo de recuperación de contraseña que permita al usuario restablecer su contraseña, posiblemente mediante un correo de verificación.</t>
   </si>
   <si>
-    <t>El sistema debe tener  una foto representativa de las comunidades indigenas en el background.</t>
-  </si>
-  <si>
     <t>El sistema debe guardar las contraseñas hasheadas mediante protocolos como argon2d o bcrypt.</t>
   </si>
   <si>
@@ -937,6 +858,74 @@
   </si>
   <si>
     <t>El sistema requiere un controlador en el cual se van a definir las variables mediante las querys a la base de datos</t>
+  </si>
+  <si>
+    <t>El modulo debe proporcionar un encabezado principal de color blanco</t>
+  </si>
+  <si>
+    <t>El modulo debe tener un boton en el encabezado de color naranja que diga Volver y redirija al index.</t>
+  </si>
+  <si>
+    <t>El modulo debe incluir en el encabezado el logo VIVA, su nombre Viva, y debajo debe decir Artesanías Colombianas</t>
+  </si>
+  <si>
+    <t>El modulo debe tener formularios aparte y llamarlos para la vista de dispositivos mobiles.</t>
+  </si>
+  <si>
+    <t>El modulo debe tener un formulario transicionable de login a registro y viceversa.</t>
+  </si>
+  <si>
+    <t>El modulo debe tener como background una foto representativa de las artesanías colombianas.</t>
+  </si>
+  <si>
+    <t>El modulo de iniciar sesion debe tener un titulo que diga Iniciar Sesion</t>
+  </si>
+  <si>
+    <t>El modulo de iniciar sesion debe tener un formulario con los campos de correo y contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El modulo de iniciar sesion debe tener un texto clickable que diga Olvidaste tu contraseña </t>
+  </si>
+  <si>
+    <t>El modulo de iniciar sesion debe tener un boton naranja con texto blanco que diga INICIAR SESION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el panel derecho del modulo de iniciar sesion debe haber un texto que diga ¡Hola, Amigo! Descubre una artesanía que cuente nuestra historia.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el panel derecho del modulo de iniciar sesion debe haber un boton que diga Registrarse el cual me lleve al modulo de registro
+</t>
+  </si>
+  <si>
+    <t>En el panel izquierdo del modulo de registro debe haber un texto que diga: Bienvenido de nuevo Para mantenerte conectado con nosotros, por favor inicia sesión con tu información personal</t>
+  </si>
+  <si>
+    <t>En el panel izquiero del modulo de registro debe haber un boton que diga Iniciar sesion y me lleve al modulo de inicio de sesion</t>
+  </si>
+  <si>
+    <t>En el panel derecho del modulo de registro debe haber un titulo que diga Crear Cuenta</t>
+  </si>
+  <si>
+    <t>En el panel derecho del modulo de registro debe haber un boton que me permita registrarme con Google</t>
+  </si>
+  <si>
+    <t>En el panel derecho del modulo de registro debe haber un formulario con los campos de Nombre, Apellido, Email y contraseña</t>
+  </si>
+  <si>
+    <t>En el panel derecho del modulo de registro debe haber un boton naranta con texto blanco que diga registrarse</t>
+  </si>
+  <si>
+    <t>En ambos formularios el campo de contraseña debe tener un icono de ojito que me permita visualizar la contraseña que estoy escribiendo.</t>
+  </si>
+  <si>
+    <t>El panel izquiero de modulo de login y panel derecho de modulo de registro deben ser de color blanco.</t>
+  </si>
+  <si>
+    <t>El panel derecho del modulo de login debe tener un color gradiante naranja</t>
+  </si>
+  <si>
+    <t>El panel izquierdo del modulo de registro debe ser de un color gradiante entre beige y café.</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1294,6 +1283,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,14 +1326,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1378,6 +1365,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1684,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,16 +1705,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="B2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1743,20 +1749,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1769,542 +1775,542 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="5">
+      <c r="C10" s="16">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>289</v>
+        <v>50</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="5">
+      <c r="C11" s="16">
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>289</v>
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="5">
+      <c r="C12" s="16">
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>289</v>
+        <v>52</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="5">
+      <c r="C13" s="16">
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>289</v>
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="5">
+      <c r="C14" s="16">
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>289</v>
+        <v>54</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="5">
+      <c r="C15" s="16">
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>289</v>
+        <v>268</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="5">
+      <c r="C16" s="16">
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>289</v>
+        <v>55</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="5">
+      <c r="C17" s="16">
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>289</v>
+        <v>56</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="5">
+      <c r="C18" s="16">
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>289</v>
+        <v>57</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="5">
+      <c r="C19" s="16">
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>289</v>
+        <v>58</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="5">
+      <c r="C20" s="16">
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>289</v>
+        <v>59</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="5">
+      <c r="C21" s="16">
         <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>289</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="5">
+      <c r="C22" s="16">
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>289</v>
+        <v>61</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="5">
+      <c r="C23" s="16">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>289</v>
+        <v>62</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="5">
+      <c r="C24" s="16">
         <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>289</v>
+        <v>63</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="5">
+      <c r="C25" s="16">
         <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>289</v>
+        <v>64</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="5">
+      <c r="C26" s="16">
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>289</v>
+        <v>65</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="5">
+      <c r="C27" s="16">
         <v>18</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>289</v>
+        <v>66</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="5">
+      <c r="C28" s="16">
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="5">
+      <c r="C29" s="16">
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="5">
+      <c r="C30" s="16">
         <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>289</v>
+        <v>68</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="5">
+      <c r="C31" s="16">
         <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>289</v>
+        <v>69</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="5">
+      <c r="C32" s="16">
         <v>23</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>289</v>
+        <v>70</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="5">
+      <c r="C33" s="16">
         <v>24</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>289</v>
+        <v>71</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="5">
+      <c r="C34" s="16">
         <v>25</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>289</v>
+        <v>72</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="5">
+      <c r="C35" s="16">
         <v>26</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>289</v>
+        <v>73</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="5">
+      <c r="C36" s="16">
         <v>27</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>289</v>
+        <v>74</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="5">
+      <c r="C37" s="16">
         <v>28</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>289</v>
+        <v>75</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="5">
+      <c r="C38" s="16">
         <v>29</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>289</v>
+        <v>76</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="5">
+      <c r="C39" s="16">
         <v>30</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>289</v>
+        <v>77</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="5">
+      <c r="C40" s="16">
         <v>31</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>289</v>
+        <v>270</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="5">
+      <c r="C41" s="16">
         <v>32</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>289</v>
+        <v>78</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="5">
+      <c r="C42" s="16">
         <v>33</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>289</v>
+        <v>79</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="3:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="5">
+      <c r="C43" s="16">
         <v>34</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>289</v>
+        <v>80</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="5">
+      <c r="C44" s="16">
         <v>35</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>289</v>
+        <v>81</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="5">
+      <c r="C45" s="16">
         <v>36</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>289</v>
+        <v>82</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="5">
+      <c r="C46" s="16">
         <v>37</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>289</v>
+        <v>83</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="5">
+      <c r="C47" s="16">
         <v>38</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>289</v>
+        <v>84</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="29"/>
+      <c r="C49" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F50" s="7" t="s">
@@ -2321,203 +2327,203 @@
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="5">
+      <c r="C51" s="16">
         <v>1</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>289</v>
+        <v>85</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="5">
+      <c r="C52" s="16">
         <v>2</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>289</v>
+        <v>86</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="5">
+      <c r="C53" s="16">
         <v>3</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>289</v>
+        <v>87</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="5">
+      <c r="C54" s="16">
         <v>4</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>289</v>
+        <v>88</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="5">
+      <c r="C55" s="16">
         <v>5</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>289</v>
+        <v>89</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="5">
+      <c r="C56" s="16">
         <v>6</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>289</v>
+        <v>48</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="5">
+      <c r="C57" s="16">
         <v>7</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>289</v>
+        <v>90</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="5">
+      <c r="C58" s="16">
         <v>8</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>289</v>
+        <v>91</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="5">
+      <c r="C59" s="16">
         <v>9</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>289</v>
+        <v>271</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="5">
+      <c r="C60" s="16">
         <v>10</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="5">
+      <c r="C61" s="16">
         <v>11</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="5">
+      <c r="C62" s="16">
         <v>12</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="5">
+      <c r="C63" s="16">
         <v>13</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="5">
+      <c r="C64" s="16">
         <v>14</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="58">
+      <c r="B65" s="56">
         <v>17</v>
       </c>
     </row>
@@ -2534,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661153BD-DCB1-4147-BD16-88361918A528}">
-  <dimension ref="B2:I79"/>
+  <dimension ref="B2:I73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:D32"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,25 +2558,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -2581,10 +2587,10 @@
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -2595,10 +2601,10 @@
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -2606,10 +2612,10 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
@@ -2619,11 +2625,11 @@
       <c r="I6" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="F9" s="20" t="s">
         <v>0</v>
       </c>
@@ -2641,11 +2647,13 @@
       <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="F10" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2654,11 +2662,13 @@
       <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="F11" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2667,11 +2677,13 @@
       <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="F12" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2680,24 +2692,28 @@
       <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="F13" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="F14" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2706,11 +2722,13 @@
       <c r="B15" s="16">
         <v>6</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="F15" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2719,11 +2737,13 @@
       <c r="B16" s="16">
         <v>7</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="F16" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2732,24 +2752,28 @@
       <c r="B17" s="16">
         <v>8</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="F17" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>9</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="F18" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2758,24 +2782,28 @@
       <c r="B19" s="16">
         <v>10</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="F19" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>11</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="F20" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2784,24 +2812,28 @@
       <c r="B21" s="16">
         <v>12</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="F21" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>13</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="F22" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2810,11 +2842,13 @@
       <c r="B23" s="16">
         <v>14</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="F23" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2823,37 +2857,43 @@
       <c r="B24" s="16">
         <v>15</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="F24" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>16</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="C25" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="65" t="s">
+        <v>263</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>17</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="F26" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2862,11 +2902,13 @@
       <c r="B27" s="16">
         <v>18</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="F27" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2875,11 +2917,13 @@
       <c r="B28" s="16">
         <v>19</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="63"/>
+      <c r="F28" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2888,42 +2932,51 @@
       <c r="B29" s="16">
         <v>20</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="F29" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>21</v>
       </c>
-      <c r="C30" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="45"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="F30" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="16">
+        <v>22</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="F33" s="20" t="s">
         <v>0</v>
       </c>
@@ -2942,10 +2995,12 @@
         <v>1</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="F34" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="F34" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2955,10 +3010,12 @@
         <v>2</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="F35" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="F35" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2968,10 +3025,12 @@
         <v>3</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="F36" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="F36" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2981,340 +3040,280 @@
         <v>4</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="F37" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="F37" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="18">
-        <v>5</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="F38" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="F38" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="18">
-        <v>7</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="F39" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="F39" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="18">
-        <v>8</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="F40" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="F40" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="18">
-        <v>9</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="F41" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="F41" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18">
-        <v>10</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="18">
-        <v>11</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="F43" s="2"/>
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
+        <v>15</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="F43" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="18">
-        <v>12</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="F44" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="F44" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="18">
-        <v>13</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="41"/>
-      <c r="F45" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="F45" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="18">
-        <v>14</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="F46" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="19">
-        <v>15</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="F47" s="2"/>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
+        <v>21</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="F47" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="18">
-        <v>16</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="F48" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="F48" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="18">
-        <v>17</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="18">
-        <v>18</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="D50" s="41"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="18">
-        <v>19</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D51" s="41"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="18">
-        <v>20</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="18">
-        <v>21</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D53" s="41"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="18">
-        <v>22</v>
-      </c>
-      <c r="C54" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
+  <mergeCells count="62">
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -3322,9 +3321,9 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -3376,16 +3375,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="B2" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3420,20 +3419,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3462,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3474,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3486,7 +3485,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3498,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3510,7 +3509,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3522,7 +3521,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3534,7 +3533,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3546,7 +3545,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3558,7 +3557,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3570,7 +3569,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3582,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3594,7 +3593,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3606,7 +3605,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3618,7 +3617,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3630,7 +3629,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3642,7 +3641,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3654,7 +3653,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3666,7 +3665,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3678,7 +3677,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3690,7 +3689,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3702,7 +3701,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3714,7 +3713,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3726,7 +3725,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3738,7 +3737,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3750,7 +3749,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3762,7 +3761,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3774,7 +3773,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3786,7 +3785,7 @@
         <v>29</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3798,7 +3797,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3810,7 +3809,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3818,10 +3817,10 @@
       <c r="I40" s="2"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="52"/>
+      <c r="C42" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="50"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F43" s="3" t="s">
@@ -3842,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3854,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3866,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3878,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3890,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3902,7 +3901,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3914,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3951,16 +3950,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3995,20 +3994,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="50"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4037,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4049,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4061,7 +4060,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4073,7 +4072,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4085,7 +4084,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4097,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4109,7 +4108,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4121,7 +4120,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4133,7 +4132,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4145,7 +4144,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4157,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4169,7 +4168,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4181,7 +4180,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4193,7 +4192,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4205,7 +4204,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4217,7 +4216,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4229,7 +4228,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4241,7 +4240,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4253,7 +4252,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4265,7 +4264,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4277,7 +4276,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4289,7 +4288,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4301,7 +4300,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4313,7 +4312,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4325,7 +4324,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4337,7 +4336,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4349,7 +4348,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4361,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4373,7 +4372,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4385,7 +4384,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4397,7 +4396,7 @@
         <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4409,7 +4408,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4421,7 +4420,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4433,7 +4432,7 @@
         <v>35</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4441,10 +4440,10 @@
       <c r="I44" s="2"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="52"/>
+      <c r="C46" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F47" s="3" t="s">
@@ -4465,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -4477,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -4489,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -4501,7 +4500,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -4513,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -4525,7 +4524,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -4537,7 +4536,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4549,7 +4548,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -4561,7 +4560,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4598,16 +4597,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4642,20 +4641,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="50"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4684,7 +4683,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4696,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4708,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4720,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4732,7 +4731,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4744,7 +4743,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4756,7 +4755,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4768,7 +4767,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4780,7 +4779,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4792,7 +4791,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4804,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4816,7 +4815,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4828,7 +4827,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4840,7 +4839,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4852,7 +4851,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4864,7 +4863,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4876,7 +4875,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4888,7 +4887,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4900,7 +4899,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4912,7 +4911,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4924,7 +4923,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4936,7 +4935,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4948,7 +4947,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4960,7 +4959,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4972,7 +4971,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4984,7 +4983,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4996,7 +4995,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -5008,7 +5007,7 @@
         <v>29</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -5020,7 +5019,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -5032,7 +5031,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -5044,7 +5043,7 @@
         <v>32</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -5056,7 +5055,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -5068,7 +5067,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -5080,7 +5079,7 @@
         <v>35</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -5092,7 +5091,7 @@
         <v>36</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -5104,7 +5103,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -5116,7 +5115,7 @@
         <v>38</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -5128,7 +5127,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -5140,7 +5139,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -5152,7 +5151,7 @@
         <v>41</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -5164,7 +5163,7 @@
         <v>42</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -5176,7 +5175,7 @@
         <v>43</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -5188,7 +5187,7 @@
         <v>44</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -5196,10 +5195,10 @@
       <c r="I53" s="2"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="52"/>
+      <c r="C55" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="50"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F56" s="3" t="s">
@@ -5220,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -5232,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -5244,7 +5243,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -5256,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -5268,7 +5267,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -5280,7 +5279,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -5292,7 +5291,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -5304,7 +5303,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -5316,7 +5315,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -5328,7 +5327,7 @@
         <v>10</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -5366,16 +5365,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -5410,20 +5409,20 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="50"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5452,7 +5451,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5464,7 +5463,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5476,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5488,7 +5487,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -5500,7 +5499,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5512,7 +5511,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -5524,7 +5523,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5536,7 +5535,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5548,7 +5547,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5560,7 +5559,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5568,10 +5567,10 @@
       <c r="I20" s="2"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="52"/>
+      <c r="C22" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F23" s="3" t="s">
@@ -5592,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -5604,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -5616,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -5628,7 +5627,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -5640,7 +5639,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -5662,8 +5661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F66246-78FA-4E46-BC75-E6EFAC710DAD}">
   <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+    <sheetView topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,25 +5674,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -5704,10 +5703,10 @@
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -5718,10 +5717,10 @@
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -5729,10 +5728,10 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
@@ -5742,11 +5741,11 @@
       <c r="I6" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="F9" s="20" t="s">
         <v>0</v>
       </c>
@@ -5764,12 +5763,12 @@
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="56"/>
-      <c r="F10" s="22" t="s">
-        <v>289</v>
+      <c r="C10" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="F10" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5779,12 +5778,12 @@
       <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="F11" s="22" t="s">
-        <v>289</v>
+      <c r="C11" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="F11" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5794,12 +5793,12 @@
       <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="F12" s="2" t="s">
-        <v>289</v>
+      <c r="C12" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="F12" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5809,12 +5808,12 @@
       <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="F13" s="2" t="s">
-        <v>289</v>
+      <c r="C13" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="F13" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5824,12 +5823,12 @@
       <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="F14" s="2" t="s">
-        <v>289</v>
+      <c r="C14" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="F14" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5839,12 +5838,12 @@
       <c r="B15" s="16">
         <v>7</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="F15" s="2" t="s">
-        <v>289</v>
+      <c r="C15" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="F15" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -5854,12 +5853,12 @@
       <c r="B16" s="16">
         <v>8</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="56"/>
-      <c r="F16" s="2" t="s">
-        <v>289</v>
+      <c r="C16" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="F16" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5869,12 +5868,12 @@
       <c r="B17" s="16">
         <v>9</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="F17" s="2" t="s">
-        <v>289</v>
+      <c r="C17" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="F17" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5884,16 +5883,14 @@
       <c r="B18" s="16">
         <v>11</v>
       </c>
-      <c r="C18" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="F18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="C18" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="F18" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
@@ -5901,16 +5898,14 @@
       <c r="B19" s="16">
         <v>12</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="F19" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="C19" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="F19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
@@ -5918,15 +5913,13 @@
       <c r="B20" s="16">
         <v>13</v>
       </c>
-      <c r="C20" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="F20" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>289</v>
+      <c r="C20" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -5935,15 +5928,13 @@
       <c r="B21" s="16">
         <v>14</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="F21" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>289</v>
+      <c r="C21" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -5952,14 +5943,14 @@
       <c r="B22" s="16">
         <v>15</v>
       </c>
-      <c r="C22" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="F22" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" s="2"/>
+      <c r="C22" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="F22" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
@@ -5967,14 +5958,14 @@
       <c r="B23" s="16">
         <v>16</v>
       </c>
-      <c r="C23" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="F23" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G23" s="2"/>
+      <c r="C23" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="F23" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
@@ -5982,14 +5973,14 @@
       <c r="B24" s="16">
         <v>17</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="F24" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G24" s="2"/>
+      <c r="C24" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="F24" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
@@ -5997,14 +5988,14 @@
       <c r="B25" s="16">
         <v>18</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="F25" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G25" s="2"/>
+      <c r="C25" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="F25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
@@ -6012,14 +6003,14 @@
       <c r="B26" s="16">
         <v>19</v>
       </c>
-      <c r="C26" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="56"/>
-      <c r="F26" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G26" s="2"/>
+      <c r="C26" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="F26" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
@@ -6027,14 +6018,14 @@
       <c r="B27" s="16">
         <v>20</v>
       </c>
-      <c r="C27" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="F27" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G27" s="2"/>
+      <c r="C27" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="F27" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
@@ -6042,14 +6033,14 @@
       <c r="B28" s="16">
         <v>21</v>
       </c>
-      <c r="C28" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="F28" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G28" s="2"/>
+      <c r="C28" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="F28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
@@ -6057,14 +6048,14 @@
       <c r="B29" s="16">
         <v>22</v>
       </c>
-      <c r="C29" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="F29" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G29" s="2"/>
+      <c r="C29" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="F29" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
@@ -6072,14 +6063,14 @@
       <c r="B30" s="16">
         <v>24</v>
       </c>
-      <c r="C30" s="57" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="F30" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G30" s="2"/>
+      <c r="C30" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="F30" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
@@ -6087,14 +6078,14 @@
       <c r="B31" s="16">
         <v>25</v>
       </c>
-      <c r="C31" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="F31" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G31" s="2"/>
+      <c r="C31" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="F31" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
@@ -6102,14 +6093,14 @@
       <c r="B32" s="16">
         <v>26</v>
       </c>
-      <c r="C32" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="F32" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G32" s="2"/>
+      <c r="C32" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="F32" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
@@ -6117,14 +6108,14 @@
       <c r="B33" s="16">
         <v>30</v>
       </c>
-      <c r="C33" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="F33" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="C33" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="F33" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
@@ -6132,14 +6123,14 @@
       <c r="B34" s="16">
         <v>31</v>
       </c>
-      <c r="C34" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="57"/>
-      <c r="F34" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G34" s="2"/>
+      <c r="C34" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="55"/>
+      <c r="F34" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
@@ -6147,14 +6138,14 @@
       <c r="B35" s="16">
         <v>32</v>
       </c>
-      <c r="C35" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="F35" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="C35" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="F35" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
@@ -6162,14 +6153,14 @@
       <c r="B36" s="16">
         <v>33</v>
       </c>
-      <c r="C36" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="F36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G36" s="2"/>
+      <c r="C36" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="F36" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
@@ -6177,14 +6168,14 @@
       <c r="B37" s="16">
         <v>34</v>
       </c>
-      <c r="C37" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="D37" s="57"/>
-      <c r="F37" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G37" s="2"/>
+      <c r="C37" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="F37" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
@@ -6192,14 +6183,14 @@
       <c r="B38" s="16">
         <v>35</v>
       </c>
-      <c r="C38" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="D38" s="57"/>
-      <c r="F38" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G38" s="2"/>
+      <c r="C38" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="55"/>
+      <c r="F38" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" s="5"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
@@ -6207,13 +6198,13 @@
       <c r="B39" s="16">
         <v>36</v>
       </c>
-      <c r="C39" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>289</v>
+      <c r="C39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="55"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -6222,14 +6213,14 @@
       <c r="B40" s="16">
         <v>38</v>
       </c>
-      <c r="C40" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="F40" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G40" s="2"/>
+      <c r="C40" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="55"/>
+      <c r="F40" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G40" s="5"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
@@ -6237,14 +6228,14 @@
       <c r="B41" s="16">
         <v>39</v>
       </c>
-      <c r="C41" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="57"/>
-      <c r="F41" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G41" s="2"/>
+      <c r="C41" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="F41" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
@@ -6252,14 +6243,14 @@
       <c r="B42" s="16">
         <v>40</v>
       </c>
-      <c r="C42" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="F42" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G42" s="2"/>
+      <c r="C42" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="55"/>
+      <c r="F42" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
@@ -6267,14 +6258,14 @@
       <c r="B43" s="16">
         <v>41</v>
       </c>
-      <c r="C43" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="D43" s="57"/>
-      <c r="F43" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G43" s="2"/>
+      <c r="C43" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="F43" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G43" s="5"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
@@ -6282,14 +6273,14 @@
       <c r="B44" s="16">
         <v>42</v>
       </c>
-      <c r="C44" s="57" t="s">
-        <v>278</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="F44" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G44" s="2"/>
+      <c r="C44" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="55"/>
+      <c r="F44" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
@@ -6297,14 +6288,14 @@
       <c r="B45" s="16">
         <v>43</v>
       </c>
-      <c r="C45" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="D45" s="57"/>
-      <c r="F45" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G45" s="2"/>
+      <c r="C45" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="55"/>
+      <c r="F45" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
@@ -6312,14 +6303,14 @@
       <c r="B46" s="16">
         <v>44</v>
       </c>
-      <c r="C46" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="D46" s="57"/>
-      <c r="F46" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G46" s="2"/>
+      <c r="C46" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" s="55"/>
+      <c r="F46" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
@@ -6327,14 +6318,14 @@
       <c r="B47" s="16">
         <v>45</v>
       </c>
-      <c r="C47" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="D47" s="57"/>
-      <c r="F47" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G47" s="2"/>
+      <c r="C47" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="55"/>
+      <c r="F47" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
@@ -6342,14 +6333,14 @@
       <c r="B48" s="16">
         <v>46</v>
       </c>
-      <c r="C48" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="D48" s="57"/>
-      <c r="F48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G48" s="2"/>
+      <c r="C48" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="55"/>
+      <c r="F48" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
@@ -6357,13 +6348,13 @@
       <c r="B49" s="16">
         <v>47</v>
       </c>
-      <c r="C49" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" s="57"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>289</v>
+      <c r="C49" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -6372,14 +6363,14 @@
       <c r="B50" s="16">
         <v>48</v>
       </c>
-      <c r="C50" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="D50" s="57"/>
-      <c r="F50" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G50" s="2"/>
+      <c r="C50" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="55"/>
+      <c r="F50" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
@@ -6387,14 +6378,14 @@
       <c r="B51" s="16">
         <v>50</v>
       </c>
-      <c r="C51" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="D51" s="57"/>
-      <c r="F51" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G51" s="2"/>
+      <c r="C51" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="55"/>
+      <c r="F51" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
@@ -6402,14 +6393,14 @@
       <c r="B52" s="16">
         <v>51</v>
       </c>
-      <c r="C52" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="D52" s="57"/>
-      <c r="F52" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G52" s="2"/>
+      <c r="C52" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="55"/>
+      <c r="F52" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
@@ -6417,14 +6408,14 @@
       <c r="B53" s="16">
         <v>52</v>
       </c>
-      <c r="C53" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="D53" s="57"/>
-      <c r="F53" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G53" s="2"/>
+      <c r="C53" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="55"/>
+      <c r="F53" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
@@ -6432,13 +6423,13 @@
       <c r="B54" s="16">
         <v>53</v>
       </c>
-      <c r="C54" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="D54" s="57"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2" t="s">
-        <v>289</v>
+      <c r="C54" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="55"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -6447,56 +6438,57 @@
       <c r="B55" s="16">
         <v>54</v>
       </c>
-      <c r="C55" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" s="57"/>
-      <c r="F55" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G55" s="2"/>
+      <c r="C55" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="55"/>
+      <c r="F55" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" s="5"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="59"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="59"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="59"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="59"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="60">
